--- a/biology/Médecine/Norio_Niikawa/Norio_Niikawa.xlsx
+++ b/biology/Médecine/Norio_Niikawa/Norio_Niikawa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Norio Niikawa (新川 詔夫, Niikawa Norio?), né le 8 mai 1942 et mort le 4 avril 2022[1], est un médecin et généticien japonais qui a découvert un trouble autosomique dominant appelé syndrome de kabuki, aussi connu sous le nom syndrome de Niikawa-Kuroki[2]. Lui et son équipe ont également identifié un gène du syndrome[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Norio Niikawa (新川 詔夫, Niikawa Norio?), né le 8 mai 1942 et mort le 4 avril 2022, est un médecin et généticien japonais qui a découvert un trouble autosomique dominant appelé syndrome de kabuki, aussi connu sous le nom syndrome de Niikawa-Kuroki. Lui et son équipe ont également identifié un gène du syndrome.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Niikawa complète son M.D. en 1967 à l'école de médecine de l'université de Hokkaidō[4]. Après une formation en pédiatrie à l'hôpital universitaire de Hokkaido, il exerce comme pédiatre pendant plusieurs années. De 1972 à 1975, il travaille dans le laboratoire d'embryologie et cytogénétique du département de gynécologie et d'obstétrique à l'hôpital cantonal de l'université de Genève[5]. Il est nommé professeur et président du département de génétique humaine à l'université de Nagasaki en 1984[4]. Après s'être retiré de son position et être devenu professeur émérite, il a été professeur et directeur de l'Institut de recherche des sciences de la santé personnalisée à l'université des sciences de la santé de Hokkaidō dont il est nommé président en 2010[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Niikawa complète son M.D. en 1967 à l'école de médecine de l'université de Hokkaidō. Après une formation en pédiatrie à l'hôpital universitaire de Hokkaido, il exerce comme pédiatre pendant plusieurs années. De 1972 à 1975, il travaille dans le laboratoire d'embryologie et cytogénétique du département de gynécologie et d'obstétrique à l'hôpital cantonal de l'université de Genève. Il est nommé professeur et président du département de génétique humaine à l'université de Nagasaki en 1984. Après s'être retiré de son position et être devenu professeur émérite, il a été professeur et directeur de l'Institut de recherche des sciences de la santé personnalisée à l'université des sciences de la santé de Hokkaidō dont il est nommé président en 2010.
 </t>
         </is>
       </c>
